--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gray/Desktop/senkyo/senkyo-strike-extract/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EFFC2-8384-3749-AA53-954069E09024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CF0E9A-DB28-1345-A249-89829878CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="3420" windowWidth="28300" windowHeight="17440" xr2:uid="{1D60F394-DD6D-9D41-9BA0-CCFD93B7BC73}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,13 +279,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -302,11 +334,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +670,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -675,7 +719,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -691,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="38">
       <c r="A4">
         <v>2</v>
       </c>
@@ -701,7 +745,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -718,7 +762,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -727,7 +771,7 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
